--- a/import/8_list_sv_TQ.xlsx
+++ b/import/8_list_sv_TQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB3922F-70E6-499D-B2F6-2456AA39A3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E88B2-1B2C-43C5-ACB5-D45C27DFD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6011E32-B803-4FE2-9D72-978A9001C3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>MSV</t>
   </si>
@@ -59,300 +59,60 @@
     <t>CD23TQ11</t>
   </si>
   <si>
-    <t>Phong Vân Dực</t>
-  </si>
-  <si>
-    <t>phongvan.tq3144@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ9</t>
   </si>
   <si>
-    <t>Thiên Mộng Linh</t>
-  </si>
-  <si>
-    <t>thienmong.tq1404@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD22TQ5</t>
   </si>
   <si>
-    <t>Hàn Băng Nguyệt</t>
-  </si>
-  <si>
-    <t>hanbang.tq2666@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ5</t>
   </si>
   <si>
-    <t>Long Ẩn Sơn</t>
-  </si>
-  <si>
-    <t>longan.tq0403@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD22TQ7</t>
   </si>
   <si>
-    <t>Minh Nguyệt Hàn</t>
-  </si>
-  <si>
-    <t>minhnguyet.tq4827@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Thiên Lôi Chấn</t>
-  </si>
-  <si>
-    <t>thienloi.tq4312@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD21TQ7</t>
   </si>
   <si>
-    <t>Uyên Ương Tử</t>
-  </si>
-  <si>
-    <t>uyenhuong.tq3802@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ2</t>
   </si>
   <si>
-    <t>Bảo Thạch Nham</t>
-  </si>
-  <si>
-    <t>baothach.tq3805@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Cửu Châu Lạc</t>
-  </si>
-  <si>
-    <t>cuuchau.tq2984@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ7</t>
   </si>
   <si>
-    <t>Liên Hoa Diệp</t>
-  </si>
-  <si>
-    <t>lienhoa.tq3424@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Vân Du Tiên</t>
-  </si>
-  <si>
-    <t>vandu.tq1158@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD22TQ6</t>
   </si>
   <si>
-    <t>Tuyết Sơn Hạc</t>
-  </si>
-  <si>
-    <t>tuyetson.tq3455@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>23211TQ0068</t>
   </si>
   <si>
-    <t>Thiên Cơ Ẩn</t>
-  </si>
-  <si>
-    <t>thienco.tq0068@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD22TQ4</t>
   </si>
   <si>
-    <t>Nguyệt Ảnh Hồ</t>
-  </si>
-  <si>
-    <t>nguyetanh.tq2183@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Hỏa Phượng Minh</t>
-  </si>
-  <si>
-    <t>hoaphuong.tq0659@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD22TQ9</t>
   </si>
   <si>
-    <t>Thủy Tinh Lam</t>
-  </si>
-  <si>
-    <t>thuytinh.tq3957@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD21TQ10</t>
   </si>
   <si>
-    <t>Kim Lân Quang</t>
-  </si>
-  <si>
-    <t>kimlin.tq4824@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Mộc Hạc Tử</t>
-  </si>
-  <si>
-    <t>mochac.tq0087@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD21TQ9</t>
   </si>
   <si>
-    <t>Thổ Địa Công</t>
-  </si>
-  <si>
-    <t>thodia.tq4493@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Phong Hoa Tuyết</t>
-  </si>
-  <si>
-    <t>phonghoa.tq0774@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Nguyệt Cầm Sắt</t>
-  </si>
-  <si>
-    <t>nguyetcam.tq3655@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ4</t>
   </si>
   <si>
-    <t>Cổ Cầm Huyền</t>
-  </si>
-  <si>
-    <t>cocam.tq2438@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD21TQ8</t>
   </si>
   <si>
-    <t>Thiền Tâm Định</t>
-  </si>
-  <si>
-    <t>thientam.tq1402@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Đạo Hạnh Vô</t>
-  </si>
-  <si>
-    <t>daohanh.tq0255@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ1</t>
   </si>
   <si>
-    <t>Huyền Bí Cốc</t>
-  </si>
-  <si>
-    <t>huyenbi.tq4636@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Ảo Mộng Ảnh</t>
-  </si>
-  <si>
-    <t>aomong.tq3094@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Hư Vô Giả</t>
-  </si>
-  <si>
-    <t>huvo.tq4524@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Chân Như Tánh</t>
-  </si>
-  <si>
-    <t>channhu.tq0564@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ10</t>
   </si>
   <si>
-    <t>Diệu Quán Sát</t>
-  </si>
-  <si>
-    <t>dieuquan.tq4445@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Bát Nhã Ba</t>
-  </si>
-  <si>
-    <t>batnha.tq3477@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Kim Cang Thủ</t>
-  </si>
-  <si>
-    <t>kimcang.tq0653@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Đại Thế Chí</t>
-  </si>
-  <si>
-    <t>dathe.tq0388@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Quán Thế Âm</t>
-  </si>
-  <si>
-    <t>quanthe.tq4339@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Văn Thù Sư</t>
-  </si>
-  <si>
-    <t>vanthu.tq4803@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>CD23TQ6</t>
   </si>
   <si>
-    <t>Phổ Hiền Vương</t>
-  </si>
-  <si>
-    <t>phohien.tq4749@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Địa Tạng Vương</t>
-  </si>
-  <si>
-    <t>diatang.tq2360@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Dược Sư Như</t>
-  </si>
-  <si>
-    <t>duocsu.tq2327@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>A Di Đà Phật</t>
-  </si>
-  <si>
-    <t>adi.tq2665@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Thích Ca Mâu</t>
-  </si>
-  <si>
-    <t>thichca.tq0610@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>Di Lặc Tôn</t>
-  </si>
-  <si>
-    <t>dilac.tq3247@maithif.tdc.com</t>
-  </si>
-  <si>
     <t>23211TQ0040</t>
   </si>
   <si>
@@ -468,16 +228,165 @@
   </si>
   <si>
     <t>23211TQ0079</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH01</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH02</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH03</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH04</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH05</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH06</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH07</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH08</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH09</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH10</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH11</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH12</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH13</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH14</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH15</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH16</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH17</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH18</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH19</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH20</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH21</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH22</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH23</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH24</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH25</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH26</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH27</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH28</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH29</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH30</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH31</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH32</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH33</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH34</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH35</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH36</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH37</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH38</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH39</t>
+  </si>
+  <si>
+    <t>23211TQ00GFH40</t>
+  </si>
+  <si>
+    <t>phongvantq01@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq02@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq03@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq04@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq05@maithif.tdc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,16 +430,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -865,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FE4DFC-63EB-474F-8D28-EE3407C54386}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="J11:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,790 +813,790 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2">
         <v>38489</v>
       </c>
       <c r="E2" s="1">
-        <v>865432109</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>622211171</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2">
         <v>38593</v>
       </c>
       <c r="E3" s="1">
-        <v>876543210</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>622211172</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>38152</v>
       </c>
       <c r="E4" s="1">
-        <v>887654321</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>622211173</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
         <v>37186</v>
       </c>
       <c r="E5" s="1">
-        <v>898765432</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>622211174</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
         <v>38298</v>
       </c>
       <c r="E6" s="1">
-        <v>809876543</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>622211175</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>38422</v>
       </c>
       <c r="E7" s="1">
-        <v>810987654</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>622211176</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2">
         <v>37827</v>
       </c>
       <c r="E8" s="1">
-        <v>821098765</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>622211177</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>38233</v>
       </c>
       <c r="E9" s="1">
-        <v>832109876</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>622211178</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2">
         <v>38491</v>
       </c>
       <c r="E10" s="1">
-        <v>843210987</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>622211179</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2">
         <v>38698</v>
       </c>
       <c r="E11" s="1">
-        <v>854321098</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>622211180</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2">
         <v>38439</v>
       </c>
       <c r="E12" s="1">
-        <v>865432109</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>622211181</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
         <v>37995</v>
       </c>
       <c r="E13" s="1">
-        <v>876543210</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>622211182</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2">
         <v>37941</v>
       </c>
       <c r="E14" s="1">
-        <v>887654321</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>622211183</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2">
         <v>38254</v>
       </c>
       <c r="E15" s="1">
-        <v>898765432</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>622211184</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2">
         <v>38630</v>
       </c>
       <c r="E16" s="1">
-        <v>809876543</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>622211185</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2">
         <v>37394</v>
       </c>
       <c r="E17" s="1">
-        <v>810987654</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>622211186</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2">
         <v>37864</v>
       </c>
       <c r="E18" s="1">
-        <v>821098765</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>622211187</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2">
         <v>38151</v>
       </c>
       <c r="E19" s="1">
-        <v>832109876</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>622211188</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2">
         <v>37976</v>
       </c>
       <c r="E20" s="1">
-        <v>843210987</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>622211189</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2">
         <v>38444</v>
       </c>
       <c r="E21" s="1">
-        <v>854321098</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>622211190</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2">
         <v>38044</v>
       </c>
       <c r="E22" s="1">
-        <v>865432109</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>622211191</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2">
         <v>38541</v>
       </c>
       <c r="E23" s="1">
-        <v>876543210</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>622211192</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2">
         <v>37635</v>
       </c>
       <c r="E24" s="1">
-        <v>887654321</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>622211193</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2">
         <v>38065</v>
       </c>
       <c r="E25" s="1">
-        <v>898765432</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>622211194</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>37909</v>
       </c>
       <c r="E26" s="1">
-        <v>809876543</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>622211195</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2">
         <v>36978</v>
       </c>
       <c r="E27" s="1">
-        <v>810987654</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>622211196</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>38595</v>
       </c>
       <c r="E28" s="1">
-        <v>821098765</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
+        <v>622211197</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2">
         <v>38476</v>
       </c>
       <c r="E29" s="1">
-        <v>832109876</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>622211198</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2">
         <v>38545</v>
       </c>
       <c r="E30" s="1">
-        <v>843210987</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>622211199</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2">
         <v>38250</v>
       </c>
       <c r="E31" s="1">
-        <v>854321098</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>622211200</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2">
         <v>38448</v>
       </c>
       <c r="E32" s="1">
-        <v>865432109</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>622211201</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2">
         <v>36548</v>
       </c>
       <c r="E33" s="1">
-        <v>876543210</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>622211202</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2">
         <v>38700</v>
       </c>
       <c r="E34" s="1">
-        <v>887654321</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>622211203</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2">
         <v>37841</v>
       </c>
       <c r="E35" s="1">
-        <v>898765432</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>622211204</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2">
         <v>38461</v>
       </c>
       <c r="E36" s="1">
-        <v>809876543</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>94</v>
+        <v>622211205</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2">
         <v>38422</v>
       </c>
       <c r="E37" s="1">
-        <v>810987654</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>96</v>
+        <v>622211206</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2">
         <v>38528</v>
       </c>
       <c r="E38" s="1">
-        <v>821098765</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>98</v>
+        <v>622211207</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D39" s="2">
         <v>38298</v>
       </c>
       <c r="E39" s="1">
-        <v>832109876</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>622211208</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2">
         <v>38655</v>
       </c>
       <c r="E40" s="1">
-        <v>843210987</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>102</v>
+        <v>622211209</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>103</v>
@@ -1693,13 +1605,56 @@
         <v>38399</v>
       </c>
       <c r="E41" s="1">
-        <v>854321098</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>104</v>
+        <v>622211210</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{145BF751-4D4D-4E8F-8717-A54D8C5DDCD9}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{5E407B17-D41F-47C0-871F-0F16B92F02D4}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{19C1A654-F8FC-4783-A750-417C00FD25D5}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{13B1D208-01F5-415E-A825-EF23BE64FCF3}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{42DF9F60-D8E4-427A-B2FC-4D65A68D0F02}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{ADDC1D07-042A-4691-B15E-5566934CCCB1}"/>
+    <hyperlink ref="F41" r:id="rId7" xr:uid="{3906B794-17E8-4AC1-9E03-456D29FB9AF6}"/>
+    <hyperlink ref="F37" r:id="rId8" xr:uid="{80A009B6-9E15-48ED-BFAD-0877A2D1A75B}"/>
+    <hyperlink ref="F33" r:id="rId9" xr:uid="{9AE4907A-A2BB-4E44-A817-1E2912AEB720}"/>
+    <hyperlink ref="F29" r:id="rId10" xr:uid="{A9E98F23-5CA4-4526-906A-2F582D4A52E9}"/>
+    <hyperlink ref="F25" r:id="rId11" xr:uid="{A0DC7A83-8CFE-4395-BB11-61BB8D55513D}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{8DD8BA7B-6D12-4B38-9D49-BAB6DFFE4CF3}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{3FD91931-989D-48F9-AD85-994E8875F42B}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{4FC29F44-37F2-433D-A1CE-01F3D5ED2A77}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{86A73D45-33F3-435D-8AF8-B6BD44C20C09}"/>
+    <hyperlink ref="F40" r:id="rId16" xr:uid="{DBECDA2E-F2AA-48A3-8089-C28AEFA2230C}"/>
+    <hyperlink ref="F36" r:id="rId17" xr:uid="{56911AA8-C067-4C9D-B210-791F13A3DE59}"/>
+    <hyperlink ref="F32" r:id="rId18" xr:uid="{5BF2BD2B-B1C9-4D8A-8D8B-7C46506FD58D}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{B4675520-8D7E-4D49-855E-81EDAD3D5377}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{783F446A-C941-41CB-B6F9-725D7D986367}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{C94C5EE5-9E98-4763-8D25-572D10D12CAC}"/>
+    <hyperlink ref="F16" r:id="rId22" xr:uid="{5E96CCDB-05DF-46A6-AC78-3C06ED2EA968}"/>
+    <hyperlink ref="F12" r:id="rId23" xr:uid="{4E790F20-70E5-4CA1-AB47-4BCAF17CFA7C}"/>
+    <hyperlink ref="F8" r:id="rId24" xr:uid="{928F02C1-DF8B-4E7C-A8DD-583802B4A531}"/>
+    <hyperlink ref="F39" r:id="rId25" xr:uid="{A51E74E6-B057-4686-B310-D01348D090D2}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{5CDFD210-126C-4D9A-B6D5-C690912B2360}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{95BF5CEE-799C-4501-8878-1C3D127DB012}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{5D5B26FA-076B-4969-AF7E-B72CAB23F368}"/>
+    <hyperlink ref="F23" r:id="rId29" xr:uid="{57A940C7-2626-4FD9-8EEC-430E22CE1826}"/>
+    <hyperlink ref="F19" r:id="rId30" xr:uid="{F5A2CC76-AA77-4A38-A29F-4436BD9A8B19}"/>
+    <hyperlink ref="F15" r:id="rId31" xr:uid="{502F9E99-5E75-49AC-877F-2D432F4873E3}"/>
+    <hyperlink ref="F11" r:id="rId32" xr:uid="{0DB05713-045E-447C-AFB1-074415C5837F}"/>
+    <hyperlink ref="F38" r:id="rId33" xr:uid="{CD958A44-1B73-4B0A-BA4B-A51E824F616C}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{9DB37DE2-F16D-40A3-A00E-D1F77C417466}"/>
+    <hyperlink ref="F30" r:id="rId35" xr:uid="{785AC01C-FAD4-45A2-A386-948DF677663E}"/>
+    <hyperlink ref="F26" r:id="rId36" xr:uid="{3EF5703C-76A1-47A3-BB44-E66547E7838D}"/>
+    <hyperlink ref="F22" r:id="rId37" xr:uid="{D4D2C494-4149-495A-993D-9E20A18117F4}"/>
+    <hyperlink ref="F18" r:id="rId38" xr:uid="{2E4A1841-BCFF-4D5B-8179-78F04BD5EBF3}"/>
+    <hyperlink ref="F14" r:id="rId39" xr:uid="{83B33027-4560-4A1C-8DCB-2439BB49B15A}"/>
+    <hyperlink ref="F10" r:id="rId40" xr:uid="{762BA9F7-08EA-4514-BB0B-5426D13F0616}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import/8_list_sv_TQ.xlsx
+++ b/import/8_list_sv_TQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E88B2-1B2C-43C5-ACB5-D45C27DFD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C6A65-791B-48B5-B8DA-78C521955A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6011E32-B803-4FE2-9D72-978A9001C3C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>MSV</t>
   </si>
@@ -350,19 +350,124 @@
     <t>23211TQ00GFH40</t>
   </si>
   <si>
-    <t>phongvantq01@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>phongvantq02@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>phongvantq03@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>phongvantq04@maithif.tdc.com</t>
-  </si>
-  <si>
-    <t>phongvantq05@maithif.tdc.com</t>
+    <t>phongvantq100@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq101@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq102@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq103@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq104@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq105@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq106@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq107@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq108@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq109@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq110@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq111@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq112@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq113@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq114@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq115@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq116@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq117@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq118@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq119@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq120@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq121@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq122@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq123@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq124@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq125@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq126@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq127@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq128@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq129@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq130@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq131@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq132@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq133@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq134@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq135@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq136@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq137@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq138@maithif.tdc.com</t>
+  </si>
+  <si>
+    <t>phongvantq139@maithif.tdc.com</t>
   </si>
 </sst>
 </file>
@@ -777,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FE4DFC-63EB-474F-8D28-EE3407C54386}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +1033,7 @@
         <v>622211176</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,7 +1053,7 @@
         <v>622211177</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,7 +1073,7 @@
         <v>622211178</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -988,7 +1093,7 @@
         <v>622211179</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,7 +1113,7 @@
         <v>622211180</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1028,7 +1133,7 @@
         <v>622211181</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1048,7 +1153,7 @@
         <v>622211182</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1068,7 +1173,7 @@
         <v>622211183</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1088,7 +1193,7 @@
         <v>622211184</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1108,7 +1213,7 @@
         <v>622211185</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1128,7 +1233,7 @@
         <v>622211186</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1148,7 +1253,7 @@
         <v>622211187</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1168,7 +1273,7 @@
         <v>622211188</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1188,7 +1293,7 @@
         <v>622211189</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1208,7 +1313,7 @@
         <v>622211190</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,7 +1333,7 @@
         <v>622211191</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,7 +1353,7 @@
         <v>622211192</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1268,7 +1373,7 @@
         <v>622211193</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1288,7 +1393,7 @@
         <v>622211194</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1308,7 +1413,7 @@
         <v>622211195</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,7 +1433,7 @@
         <v>622211196</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1348,7 +1453,7 @@
         <v>622211197</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1368,7 +1473,7 @@
         <v>622211198</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1388,7 +1493,7 @@
         <v>622211199</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1408,7 +1513,7 @@
         <v>622211200</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,7 +1533,7 @@
         <v>622211201</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1448,7 +1553,7 @@
         <v>622211202</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1468,7 +1573,7 @@
         <v>622211203</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1488,7 +1593,7 @@
         <v>622211204</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1508,7 +1613,7 @@
         <v>622211205</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,7 +1633,7 @@
         <v>622211206</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1548,7 +1653,7 @@
         <v>622211207</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,7 +1673,7 @@
         <v>622211208</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1588,7 +1693,7 @@
         <v>622211209</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1608,53 +1713,11 @@
         <v>622211210</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{145BF751-4D4D-4E8F-8717-A54D8C5DDCD9}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{5E407B17-D41F-47C0-871F-0F16B92F02D4}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{19C1A654-F8FC-4783-A750-417C00FD25D5}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{13B1D208-01F5-415E-A825-EF23BE64FCF3}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{42DF9F60-D8E4-427A-B2FC-4D65A68D0F02}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{ADDC1D07-042A-4691-B15E-5566934CCCB1}"/>
-    <hyperlink ref="F41" r:id="rId7" xr:uid="{3906B794-17E8-4AC1-9E03-456D29FB9AF6}"/>
-    <hyperlink ref="F37" r:id="rId8" xr:uid="{80A009B6-9E15-48ED-BFAD-0877A2D1A75B}"/>
-    <hyperlink ref="F33" r:id="rId9" xr:uid="{9AE4907A-A2BB-4E44-A817-1E2912AEB720}"/>
-    <hyperlink ref="F29" r:id="rId10" xr:uid="{A9E98F23-5CA4-4526-906A-2F582D4A52E9}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{A0DC7A83-8CFE-4395-BB11-61BB8D55513D}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{8DD8BA7B-6D12-4B38-9D49-BAB6DFFE4CF3}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{3FD91931-989D-48F9-AD85-994E8875F42B}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{4FC29F44-37F2-433D-A1CE-01F3D5ED2A77}"/>
-    <hyperlink ref="F9" r:id="rId15" xr:uid="{86A73D45-33F3-435D-8AF8-B6BD44C20C09}"/>
-    <hyperlink ref="F40" r:id="rId16" xr:uid="{DBECDA2E-F2AA-48A3-8089-C28AEFA2230C}"/>
-    <hyperlink ref="F36" r:id="rId17" xr:uid="{56911AA8-C067-4C9D-B210-791F13A3DE59}"/>
-    <hyperlink ref="F32" r:id="rId18" xr:uid="{5BF2BD2B-B1C9-4D8A-8D8B-7C46506FD58D}"/>
-    <hyperlink ref="F28" r:id="rId19" xr:uid="{B4675520-8D7E-4D49-855E-81EDAD3D5377}"/>
-    <hyperlink ref="F24" r:id="rId20" xr:uid="{783F446A-C941-41CB-B6F9-725D7D986367}"/>
-    <hyperlink ref="F20" r:id="rId21" xr:uid="{C94C5EE5-9E98-4763-8D25-572D10D12CAC}"/>
-    <hyperlink ref="F16" r:id="rId22" xr:uid="{5E96CCDB-05DF-46A6-AC78-3C06ED2EA968}"/>
-    <hyperlink ref="F12" r:id="rId23" xr:uid="{4E790F20-70E5-4CA1-AB47-4BCAF17CFA7C}"/>
-    <hyperlink ref="F8" r:id="rId24" xr:uid="{928F02C1-DF8B-4E7C-A8DD-583802B4A531}"/>
-    <hyperlink ref="F39" r:id="rId25" xr:uid="{A51E74E6-B057-4686-B310-D01348D090D2}"/>
-    <hyperlink ref="F35" r:id="rId26" xr:uid="{5CDFD210-126C-4D9A-B6D5-C690912B2360}"/>
-    <hyperlink ref="F31" r:id="rId27" xr:uid="{95BF5CEE-799C-4501-8878-1C3D127DB012}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{5D5B26FA-076B-4969-AF7E-B72CAB23F368}"/>
-    <hyperlink ref="F23" r:id="rId29" xr:uid="{57A940C7-2626-4FD9-8EEC-430E22CE1826}"/>
-    <hyperlink ref="F19" r:id="rId30" xr:uid="{F5A2CC76-AA77-4A38-A29F-4436BD9A8B19}"/>
-    <hyperlink ref="F15" r:id="rId31" xr:uid="{502F9E99-5E75-49AC-877F-2D432F4873E3}"/>
-    <hyperlink ref="F11" r:id="rId32" xr:uid="{0DB05713-045E-447C-AFB1-074415C5837F}"/>
-    <hyperlink ref="F38" r:id="rId33" xr:uid="{CD958A44-1B73-4B0A-BA4B-A51E824F616C}"/>
-    <hyperlink ref="F34" r:id="rId34" xr:uid="{9DB37DE2-F16D-40A3-A00E-D1F77C417466}"/>
-    <hyperlink ref="F30" r:id="rId35" xr:uid="{785AC01C-FAD4-45A2-A386-948DF677663E}"/>
-    <hyperlink ref="F26" r:id="rId36" xr:uid="{3EF5703C-76A1-47A3-BB44-E66547E7838D}"/>
-    <hyperlink ref="F22" r:id="rId37" xr:uid="{D4D2C494-4149-495A-993D-9E20A18117F4}"/>
-    <hyperlink ref="F18" r:id="rId38" xr:uid="{2E4A1841-BCFF-4D5B-8179-78F04BD5EBF3}"/>
-    <hyperlink ref="F14" r:id="rId39" xr:uid="{83B33027-4560-4A1C-8DCB-2439BB49B15A}"/>
-    <hyperlink ref="F10" r:id="rId40" xr:uid="{762BA9F7-08EA-4514-BB0B-5426D13F0616}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>